--- a/Preguntas/UNION_centroides.xlsx
+++ b/Preguntas/UNION_centroides.xlsx
@@ -466,7 +466,7 @@
         <v>48.16231781852373</v>
       </c>
       <c r="B3" t="n">
-        <v>69.43077103902213</v>
+        <v>69.43077103902212</v>
       </c>
       <c r="C3" t="n">
         <v>15.2650446638458</v>
